--- a/covidhk_class.xlsx
+++ b/covidhk_class.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jacky\Desktop\Data Science\FTDS_Aug2020_GroupProject1_Covid19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24BE349-AA98-4199-B9D1-17DC8863DACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$474</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,11 +55,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +125,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +211,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +263,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,14 +456,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -421,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43853</v>
       </c>
@@ -432,7 +492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43854</v>
       </c>
@@ -443,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43856</v>
       </c>
@@ -454,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43859</v>
       </c>
@@ -465,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43860</v>
       </c>
@@ -476,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43860</v>
       </c>
@@ -487,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43861</v>
       </c>
@@ -498,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43862</v>
       </c>
@@ -509,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43863</v>
       </c>
@@ -520,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43865</v>
       </c>
@@ -531,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43866</v>
       </c>
@@ -542,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43866</v>
       </c>
@@ -553,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43867</v>
       </c>
@@ -564,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43867</v>
       </c>
@@ -575,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43868</v>
       </c>
@@ -586,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43870</v>
       </c>
@@ -597,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43870</v>
       </c>
@@ -608,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43871</v>
       </c>
@@ -619,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43871</v>
       </c>
@@ -630,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43871</v>
       </c>
@@ -641,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43872</v>
       </c>
@@ -652,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43872</v>
       </c>
@@ -663,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43872</v>
       </c>
@@ -674,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43873</v>
       </c>
@@ -685,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43874</v>
       </c>
@@ -696,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43874</v>
       </c>
@@ -707,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43875</v>
       </c>
@@ -718,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43875</v>
       </c>
@@ -729,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43875</v>
       </c>
@@ -740,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43877</v>
       </c>
@@ -751,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43878</v>
       </c>
@@ -762,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43878</v>
       </c>
@@ -773,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43879</v>
       </c>
@@ -784,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43879</v>
       </c>
@@ -795,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43880</v>
       </c>
@@ -806,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43881</v>
       </c>
@@ -817,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43881</v>
       </c>
@@ -828,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43883</v>
       </c>
@@ -839,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43884</v>
       </c>
@@ -850,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43884</v>
       </c>
@@ -861,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43884</v>
       </c>
@@ -872,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43884</v>
       </c>
@@ -883,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43885</v>
       </c>
@@ -894,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43885</v>
       </c>
@@ -905,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43886</v>
       </c>
@@ -916,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43886</v>
       </c>
@@ -927,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43886</v>
       </c>
@@ -938,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43887</v>
       </c>
@@ -949,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43887</v>
       </c>
@@ -960,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43887</v>
       </c>
@@ -971,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43888</v>
       </c>
@@ -982,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43889</v>
       </c>
@@ -993,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43890</v>
       </c>
@@ -1004,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43891</v>
       </c>
@@ -1015,7 +1075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43891</v>
       </c>
@@ -1026,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43891</v>
       </c>
@@ -1037,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43891</v>
       </c>
@@ -1048,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43892</v>
       </c>
@@ -1059,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43894</v>
       </c>
@@ -1070,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43894</v>
       </c>
@@ -1081,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43894</v>
       </c>
@@ -1092,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43894</v>
       </c>
@@ -1103,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43896</v>
       </c>
@@ -1114,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43896</v>
       </c>
@@ -1125,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43896</v>
       </c>
@@ -1136,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43897</v>
       </c>
@@ -1147,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43898</v>
       </c>
@@ -1158,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43898</v>
       </c>
@@ -1169,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43898</v>
       </c>
@@ -1180,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43898</v>
       </c>
@@ -1191,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43899</v>
       </c>
@@ -1202,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43900</v>
       </c>
@@ -1213,7 +1273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43900</v>
       </c>
@@ -1224,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43901</v>
       </c>
@@ -1235,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43901</v>
       </c>
@@ -1246,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43902</v>
       </c>
@@ -1257,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43903</v>
       </c>
@@ -1268,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43903</v>
       </c>
@@ -1279,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43903</v>
       </c>
@@ -1290,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43904</v>
       </c>
@@ -1301,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43904</v>
       </c>
@@ -1312,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43905</v>
       </c>
@@ -1323,7 +1383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43905</v>
       </c>
@@ -1334,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43906</v>
       </c>
@@ -1345,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43906</v>
       </c>
@@ -1356,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43906</v>
       </c>
@@ -1367,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43907</v>
       </c>
@@ -1378,7 +1438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43907</v>
       </c>
@@ -1389,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43907</v>
       </c>
@@ -1400,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43908</v>
       </c>
@@ -1411,7 +1471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43908</v>
       </c>
@@ -1422,7 +1482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43908</v>
       </c>
@@ -1433,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43908</v>
       </c>
@@ -1444,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43908</v>
       </c>
@@ -1455,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43909</v>
       </c>
@@ -1466,7 +1526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43909</v>
       </c>
@@ -1477,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43909</v>
       </c>
@@ -1488,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43909</v>
       </c>
@@ -1499,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43910</v>
       </c>
@@ -1510,7 +1570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43910</v>
       </c>
@@ -1521,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43910</v>
       </c>
@@ -1532,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43910</v>
       </c>
@@ -1543,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43910</v>
       </c>
@@ -1554,7 +1614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43910</v>
       </c>
@@ -1565,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43911</v>
       </c>
@@ -1576,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43911</v>
       </c>
@@ -1587,7 +1647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43911</v>
       </c>
@@ -1598,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43911</v>
       </c>
@@ -1609,7 +1669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43911</v>
       </c>
@@ -1620,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>43912</v>
       </c>
@@ -1631,7 +1691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43912</v>
       </c>
@@ -1642,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>43912</v>
       </c>
@@ -1653,7 +1713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>43912</v>
       </c>
@@ -1664,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>43912</v>
       </c>
@@ -1675,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>43912</v>
       </c>
@@ -1686,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>43913</v>
       </c>
@@ -1697,7 +1757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>43913</v>
       </c>
@@ -1708,7 +1768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>43913</v>
       </c>
@@ -1719,7 +1779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>43913</v>
       </c>
@@ -1730,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>43913</v>
       </c>
@@ -1741,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>43913</v>
       </c>
@@ -1752,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>43914</v>
       </c>
@@ -1763,7 +1823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>43914</v>
       </c>
@@ -1774,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>43914</v>
       </c>
@@ -1785,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>43914</v>
       </c>
@@ -1796,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>43914</v>
       </c>
@@ -1807,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>43915</v>
       </c>
@@ -1818,7 +1878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>43915</v>
       </c>
@@ -1829,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>43915</v>
       </c>
@@ -1840,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>43915</v>
       </c>
@@ -1851,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>43916</v>
       </c>
@@ -1862,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>43916</v>
       </c>
@@ -1873,7 +1933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>43916</v>
       </c>
@@ -1884,7 +1944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>43916</v>
       </c>
@@ -1895,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>43917</v>
       </c>
@@ -1906,7 +1966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>43917</v>
       </c>
@@ -1917,7 +1977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>43917</v>
       </c>
@@ -1928,7 +1988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>43917</v>
       </c>
@@ -1939,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>43918</v>
       </c>
@@ -1950,7 +2010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>43918</v>
       </c>
@@ -1961,7 +2021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>43918</v>
       </c>
@@ -1972,7 +2032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>43918</v>
       </c>
@@ -1983,7 +2043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>43919</v>
       </c>
@@ -1994,7 +2054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>43919</v>
       </c>
@@ -2005,7 +2065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>43919</v>
       </c>
@@ -2016,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>43919</v>
       </c>
@@ -2027,7 +2087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>43919</v>
       </c>
@@ -2038,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>43919</v>
       </c>
@@ -2049,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>43920</v>
       </c>
@@ -2060,7 +2120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>43920</v>
       </c>
@@ -2071,7 +2131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>43920</v>
       </c>
@@ -2082,7 +2142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>43920</v>
       </c>
@@ -2093,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>43921</v>
       </c>
@@ -2104,7 +2164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>43921</v>
       </c>
@@ -2115,7 +2175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>43921</v>
       </c>
@@ -2126,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>43921</v>
       </c>
@@ -2137,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>43922</v>
       </c>
@@ -2148,7 +2208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>43922</v>
       </c>
@@ -2159,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>43922</v>
       </c>
@@ -2170,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>43922</v>
       </c>
@@ -2181,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>43922</v>
       </c>
@@ -2192,7 +2252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>43922</v>
       </c>
@@ -2203,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>43923</v>
       </c>
@@ -2214,7 +2274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>43923</v>
       </c>
@@ -2225,7 +2285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>43923</v>
       </c>
@@ -2236,7 +2296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>43923</v>
       </c>
@@ -2247,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>43923</v>
       </c>
@@ -2258,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>43924</v>
       </c>
@@ -2269,7 +2329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>43924</v>
       </c>
@@ -2280,7 +2340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>43924</v>
       </c>
@@ -2291,7 +2351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>43924</v>
       </c>
@@ -2302,7 +2362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>43925</v>
       </c>
@@ -2313,7 +2373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>43925</v>
       </c>
@@ -2324,7 +2384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>43925</v>
       </c>
@@ -2335,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>43925</v>
       </c>
@@ -2346,7 +2406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>43926</v>
       </c>
@@ -2357,7 +2417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>43926</v>
       </c>
@@ -2368,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>43927</v>
       </c>
@@ -2379,7 +2439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>43927</v>
       </c>
@@ -2390,7 +2450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>43927</v>
       </c>
@@ -2401,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>43928</v>
       </c>
@@ -2412,7 +2472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>43928</v>
       </c>
@@ -2423,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>43928</v>
       </c>
@@ -2434,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>43929</v>
       </c>
@@ -2445,7 +2505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>43929</v>
       </c>
@@ -2456,7 +2516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>43929</v>
       </c>
@@ -2467,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>43929</v>
       </c>
@@ -2478,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>43929</v>
       </c>
@@ -2489,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>43930</v>
       </c>
@@ -2500,7 +2560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>43930</v>
       </c>
@@ -2511,7 +2571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>43930</v>
       </c>
@@ -2522,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>43931</v>
       </c>
@@ -2533,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>43931</v>
       </c>
@@ -2544,7 +2604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>43931</v>
       </c>
@@ -2555,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>43932</v>
       </c>
@@ -2566,7 +2626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>43932</v>
       </c>
@@ -2577,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>43933</v>
       </c>
@@ -2588,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>43933</v>
       </c>
@@ -2599,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>43934</v>
       </c>
@@ -2610,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>43934</v>
       </c>
@@ -2621,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>43935</v>
       </c>
@@ -2632,7 +2692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>43935</v>
       </c>
@@ -2643,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>43936</v>
       </c>
@@ -2654,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>43937</v>
       </c>
@@ -2665,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>43938</v>
       </c>
@@ -2676,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>43938</v>
       </c>
@@ -2687,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>43939</v>
       </c>
@@ -2698,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>43940</v>
       </c>
@@ -2709,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>43940</v>
       </c>
@@ -2720,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>43942</v>
       </c>
@@ -2731,7 +2791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>43943</v>
       </c>
@@ -2742,7 +2802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>43944</v>
       </c>
@@ -2753,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>43946</v>
       </c>
@@ -2764,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>43946</v>
       </c>
@@ -2775,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>43952</v>
       </c>
@@ -2786,7 +2846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>43955</v>
       </c>
@@ -2797,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>43958</v>
       </c>
@@ -2808,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>43961</v>
       </c>
@@ -2819,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>43964</v>
       </c>
@@ -2830,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>43964</v>
       </c>
@@ -2841,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>43964</v>
       </c>
@@ -2852,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>43965</v>
       </c>
@@ -2863,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>43966</v>
       </c>
@@ -2874,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>43968</v>
       </c>
@@ -2885,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>43972</v>
       </c>
@@ -2896,7 +2956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>43973</v>
       </c>
@@ -2907,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>43978</v>
       </c>
@@ -2918,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>43980</v>
       </c>
@@ -2929,7 +2989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>43981</v>
       </c>
@@ -2940,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>43982</v>
       </c>
@@ -2951,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>43983</v>
       </c>
@@ -2962,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>43983</v>
       </c>
@@ -2973,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>43984</v>
       </c>
@@ -2984,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>43984</v>
       </c>
@@ -2995,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>43984</v>
       </c>
@@ -3006,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>43986</v>
       </c>
@@ -3017,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>43986</v>
       </c>
@@ -3028,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>43987</v>
       </c>
@@ -3039,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>43988</v>
       </c>
@@ -3050,7 +3110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>43989</v>
       </c>
@@ -3061,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>43990</v>
       </c>
@@ -3072,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>43994</v>
       </c>
@@ -3083,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>43995</v>
       </c>
@@ -3094,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>43997</v>
       </c>
@@ -3105,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>43999</v>
       </c>
@@ -3116,7 +3176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>44000</v>
       </c>
@@ -3127,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>44001</v>
       </c>
@@ -3138,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>44002</v>
       </c>
@@ -3149,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>44003</v>
       </c>
@@ -3160,7 +3220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>44004</v>
       </c>
@@ -3171,7 +3231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>44005</v>
       </c>
@@ -3182,7 +3242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>44006</v>
       </c>
@@ -3193,7 +3253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>44007</v>
       </c>
@@ -3204,7 +3264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>44008</v>
       </c>
@@ -3215,7 +3275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>44009</v>
       </c>
@@ -3226,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>44010</v>
       </c>
@@ -3237,7 +3297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>44011</v>
       </c>
@@ -3248,7 +3308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>44012</v>
       </c>
@@ -3259,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>44013</v>
       </c>
@@ -3270,7 +3330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>44013</v>
       </c>
@@ -3281,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>44014</v>
       </c>
@@ -3292,7 +3352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>44015</v>
       </c>
@@ -3303,7 +3363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>44016</v>
       </c>
@@ -3314,7 +3374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>44017</v>
       </c>
@@ -3325,7 +3385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>44017</v>
       </c>
@@ -3336,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>44017</v>
       </c>
@@ -3347,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>44018</v>
       </c>
@@ -3358,7 +3418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>44018</v>
       </c>
@@ -3369,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>44019</v>
       </c>
@@ -3380,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>44019</v>
       </c>
@@ -3391,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>44019</v>
       </c>
@@ -3402,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>44020</v>
       </c>
@@ -3413,7 +3473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>44020</v>
       </c>
@@ -3424,7 +3484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>44020</v>
       </c>
@@ -3435,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>44021</v>
       </c>
@@ -3446,7 +3506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>44021</v>
       </c>
@@ -3457,7 +3517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>44021</v>
       </c>
@@ -3468,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>44022</v>
       </c>
@@ -3479,7 +3539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>44022</v>
       </c>
@@ -3490,7 +3550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>44022</v>
       </c>
@@ -3501,7 +3561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>44023</v>
       </c>
@@ -3512,7 +3572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>44023</v>
       </c>
@@ -3523,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>44023</v>
       </c>
@@ -3534,7 +3594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>44024</v>
       </c>
@@ -3545,7 +3605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>44024</v>
       </c>
@@ -3556,7 +3616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>44024</v>
       </c>
@@ -3567,7 +3627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>44025</v>
       </c>
@@ -3578,7 +3638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>44025</v>
       </c>
@@ -3589,7 +3649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>44025</v>
       </c>
@@ -3600,7 +3660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>44026</v>
       </c>
@@ -3611,7 +3671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>44026</v>
       </c>
@@ -3622,7 +3682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>44026</v>
       </c>
@@ -3633,7 +3693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>44027</v>
       </c>
@@ -3644,7 +3704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>44027</v>
       </c>
@@ -3655,7 +3715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>44027</v>
       </c>
@@ -3666,7 +3726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>44028</v>
       </c>
@@ -3677,7 +3737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>44028</v>
       </c>
@@ -3688,7 +3748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>44028</v>
       </c>
@@ -3699,7 +3759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>44029</v>
       </c>
@@ -3710,7 +3770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>44029</v>
       </c>
@@ -3721,7 +3781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>44029</v>
       </c>
@@ -3732,7 +3792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>44030</v>
       </c>
@@ -3743,7 +3803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>44030</v>
       </c>
@@ -3754,7 +3814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>44030</v>
       </c>
@@ -3765,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>44031</v>
       </c>
@@ -3776,7 +3836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>44031</v>
       </c>
@@ -3787,7 +3847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>44031</v>
       </c>
@@ -3798,7 +3858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>44032</v>
       </c>
@@ -3809,7 +3869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>44032</v>
       </c>
@@ -3820,7 +3880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>44032</v>
       </c>
@@ -3831,7 +3891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>44033</v>
       </c>
@@ -3842,7 +3902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>44033</v>
       </c>
@@ -3853,7 +3913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>44033</v>
       </c>
@@ -3864,7 +3924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>44034</v>
       </c>
@@ -3875,7 +3935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>44034</v>
       </c>
@@ -3886,7 +3946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>44034</v>
       </c>
@@ -3897,7 +3957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>44035</v>
       </c>
@@ -3908,7 +3968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>44035</v>
       </c>
@@ -3919,7 +3979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>44035</v>
       </c>
@@ -3930,7 +3990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>44035</v>
       </c>
@@ -3941,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>44036</v>
       </c>
@@ -3952,7 +4012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>44036</v>
       </c>
@@ -3963,7 +4023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>44036</v>
       </c>
@@ -3974,7 +4034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>44037</v>
       </c>
@@ -3985,7 +4045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>44037</v>
       </c>
@@ -3996,7 +4056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>44037</v>
       </c>
@@ -4007,7 +4067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>44038</v>
       </c>
@@ -4018,7 +4078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>44038</v>
       </c>
@@ -4029,7 +4089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>44038</v>
       </c>
@@ -4040,7 +4100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>44039</v>
       </c>
@@ -4051,7 +4111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>44039</v>
       </c>
@@ -4062,7 +4122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>44039</v>
       </c>
@@ -4073,7 +4133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>44039</v>
       </c>
@@ -4084,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>44040</v>
       </c>
@@ -4095,7 +4155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>44040</v>
       </c>
@@ -4106,7 +4166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>44040</v>
       </c>
@@ -4117,7 +4177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>44041</v>
       </c>
@@ -4128,7 +4188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>44041</v>
       </c>
@@ -4139,7 +4199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>44041</v>
       </c>
@@ -4150,7 +4210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>44042</v>
       </c>
@@ -4161,7 +4221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>44042</v>
       </c>
@@ -4172,7 +4232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>44042</v>
       </c>
@@ -4183,7 +4243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>44043</v>
       </c>
@@ -4194,7 +4254,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>44043</v>
       </c>
@@ -4205,7 +4265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>44043</v>
       </c>
@@ -4216,7 +4276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>44044</v>
       </c>
@@ -4227,7 +4287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>44044</v>
       </c>
@@ -4238,7 +4298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>44044</v>
       </c>
@@ -4249,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>44045</v>
       </c>
@@ -4260,7 +4320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>44045</v>
       </c>
@@ -4271,7 +4331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>44045</v>
       </c>
@@ -4282,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>44046</v>
       </c>
@@ -4293,7 +4353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>44046</v>
       </c>
@@ -4304,7 +4364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>44047</v>
       </c>
@@ -4315,7 +4375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>44047</v>
       </c>
@@ -4326,7 +4386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>44047</v>
       </c>
@@ -4337,7 +4397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>44048</v>
       </c>
@@ -4348,7 +4408,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>44048</v>
       </c>
@@ -4359,7 +4419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>44048</v>
       </c>
@@ -4370,7 +4430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>44049</v>
       </c>
@@ -4381,7 +4441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>44049</v>
       </c>
@@ -4392,7 +4452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>44049</v>
       </c>
@@ -4403,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>44050</v>
       </c>
@@ -4414,7 +4474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>44050</v>
       </c>
@@ -4425,7 +4485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>44050</v>
       </c>
@@ -4436,7 +4496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>44051</v>
       </c>
@@ -4447,7 +4507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>44051</v>
       </c>
@@ -4458,7 +4518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>44051</v>
       </c>
@@ -4469,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>44052</v>
       </c>
@@ -4480,7 +4540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>44052</v>
       </c>
@@ -4491,7 +4551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>44052</v>
       </c>
@@ -4502,7 +4562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>44053</v>
       </c>
@@ -4513,7 +4573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>44053</v>
       </c>
@@ -4524,7 +4584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>44053</v>
       </c>
@@ -4535,7 +4595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>44054</v>
       </c>
@@ -4546,7 +4606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>44054</v>
       </c>
@@ -4557,7 +4617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>44054</v>
       </c>
@@ -4568,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>44055</v>
       </c>
@@ -4579,7 +4639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>44055</v>
       </c>
@@ -4590,7 +4650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>44055</v>
       </c>
@@ -4601,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>44056</v>
       </c>
@@ -4612,7 +4672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>44056</v>
       </c>
@@ -4623,7 +4683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>44056</v>
       </c>
@@ -4634,7 +4694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>44057</v>
       </c>
@@ -4645,7 +4705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>44057</v>
       </c>
@@ -4656,7 +4716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>44057</v>
       </c>
@@ -4667,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>44058</v>
       </c>
@@ -4678,7 +4738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>44058</v>
       </c>
@@ -4689,7 +4749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>44058</v>
       </c>
@@ -4700,7 +4760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>44059</v>
       </c>
@@ -4711,7 +4771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>44059</v>
       </c>
@@ -4722,7 +4782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>44059</v>
       </c>
@@ -4733,7 +4793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>44060</v>
       </c>
@@ -4744,7 +4804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>44060</v>
       </c>
@@ -4755,7 +4815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>44060</v>
       </c>
@@ -4766,7 +4826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>44061</v>
       </c>
@@ -4777,7 +4837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>44061</v>
       </c>
@@ -4788,7 +4848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>44061</v>
       </c>
@@ -4799,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>44062</v>
       </c>
@@ -4810,7 +4870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>44062</v>
       </c>
@@ -4821,7 +4881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>44062</v>
       </c>
@@ -4832,7 +4892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>44063</v>
       </c>
@@ -4843,7 +4903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>44063</v>
       </c>
@@ -4854,7 +4914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>44063</v>
       </c>
@@ -4865,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>44064</v>
       </c>
@@ -4876,7 +4936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>44064</v>
       </c>
@@ -4887,7 +4947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>44064</v>
       </c>
@@ -4898,7 +4958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>44065</v>
       </c>
@@ -4909,7 +4969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>44065</v>
       </c>
@@ -4920,7 +4980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>44065</v>
       </c>
@@ -4931,7 +4991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>44066</v>
       </c>
@@ -4942,7 +5002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>44066</v>
       </c>
@@ -4953,7 +5013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>44066</v>
       </c>
@@ -4964,7 +5024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>44067</v>
       </c>
@@ -4975,7 +5035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>44067</v>
       </c>
@@ -4986,7 +5046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>44067</v>
       </c>
@@ -4997,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>44068</v>
       </c>
@@ -5008,7 +5068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>44068</v>
       </c>
@@ -5019,7 +5079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>44068</v>
       </c>
@@ -5030,7 +5090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>44069</v>
       </c>
@@ -5041,7 +5101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>44069</v>
       </c>
@@ -5052,7 +5112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>44070</v>
       </c>
@@ -5063,7 +5123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>44070</v>
       </c>
@@ -5074,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>44070</v>
       </c>
@@ -5085,7 +5145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>44071</v>
       </c>
@@ -5096,7 +5156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>44071</v>
       </c>
@@ -5107,7 +5167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>44071</v>
       </c>
@@ -5118,7 +5178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>44072</v>
       </c>
@@ -5129,7 +5189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>44072</v>
       </c>
@@ -5140,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>44072</v>
       </c>
@@ -5151,7 +5211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>44073</v>
       </c>
@@ -5162,7 +5222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>44073</v>
       </c>
@@ -5173,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>44073</v>
       </c>
@@ -5184,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>44074</v>
       </c>
@@ -5195,7 +5255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>44074</v>
       </c>
@@ -5206,7 +5266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>44074</v>
       </c>
@@ -5217,7 +5277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>44075</v>
       </c>
@@ -5228,7 +5288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>44075</v>
       </c>
@@ -5239,7 +5299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>44075</v>
       </c>
@@ -5250,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>44076</v>
       </c>
@@ -5261,7 +5321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>44076</v>
       </c>
@@ -5272,7 +5332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>44077</v>
       </c>
@@ -5283,7 +5343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>44077</v>
       </c>
@@ -5294,7 +5354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>44077</v>
       </c>
@@ -5305,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>44078</v>
       </c>
@@ -5316,7 +5376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>44078</v>
       </c>
@@ -5327,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>44078</v>
       </c>
@@ -5338,7 +5398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>44079</v>
       </c>
@@ -5349,7 +5409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>44079</v>
       </c>
@@ -5360,7 +5420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>44080</v>
       </c>
@@ -5371,7 +5431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>44080</v>
       </c>
@@ -5382,7 +5442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>44080</v>
       </c>
@@ -5393,7 +5453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>44081</v>
       </c>
@@ -5404,7 +5464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>44081</v>
       </c>
@@ -5415,7 +5475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>44081</v>
       </c>
@@ -5426,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>44082</v>
       </c>
@@ -5437,7 +5497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>44082</v>
       </c>
@@ -5448,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>44082</v>
       </c>
@@ -5459,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>44083</v>
       </c>
@@ -5470,7 +5530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>44083</v>
       </c>
@@ -5481,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>44083</v>
       </c>
@@ -5492,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>44084</v>
       </c>
@@ -5503,7 +5563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>44084</v>
       </c>
@@ -5514,7 +5574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>44084</v>
       </c>
@@ -5525,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>44085</v>
       </c>
@@ -5536,7 +5596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>44085</v>
       </c>
@@ -5547,7 +5607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>44085</v>
       </c>
@@ -5558,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>44086</v>
       </c>
@@ -5569,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>44086</v>
       </c>
@@ -5580,7 +5640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>44086</v>
       </c>
@@ -5591,7 +5651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>44087</v>
       </c>
@@ -5602,7 +5662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>44087</v>
       </c>
@@ -5613,7 +5673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>44087</v>
       </c>
@@ -5625,6 +5685,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B474" xr:uid="{A81D79BE-9F6F-41A8-AE4A-98630FCDF88C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Imported case"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/covidhk_class.xlsx
+++ b/covidhk_class.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jacky\Desktop\Data Science\FTDS_Aug2020_GroupProject1_Covid19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24BE349-AA98-4199-B9D1-17DC8863DACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$474</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="9">
   <si>
     <t>Classification</t>
   </si>
@@ -55,11 +46,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -179,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,21 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C474"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -481,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>43853</v>
       </c>
@@ -492,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43854</v>
       </c>
@@ -503,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>43856</v>
       </c>
@@ -514,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>43859</v>
       </c>
@@ -525,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43860</v>
       </c>
@@ -536,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>43860</v>
       </c>
@@ -547,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43861</v>
       </c>
@@ -558,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43862</v>
       </c>
@@ -569,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43863</v>
       </c>
@@ -580,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43865</v>
       </c>
@@ -591,7 +531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43866</v>
       </c>
@@ -602,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43866</v>
       </c>
@@ -613,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43867</v>
       </c>
@@ -624,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43867</v>
       </c>
@@ -635,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43868</v>
       </c>
@@ -646,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43870</v>
       </c>
@@ -657,7 +597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43870</v>
       </c>
@@ -668,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43871</v>
       </c>
@@ -679,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43871</v>
       </c>
@@ -690,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>43871</v>
       </c>
@@ -701,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43872</v>
       </c>
@@ -712,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43872</v>
       </c>
@@ -723,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43872</v>
       </c>
@@ -734,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43873</v>
       </c>
@@ -745,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>43874</v>
       </c>
@@ -756,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43874</v>
       </c>
@@ -767,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43875</v>
       </c>
@@ -778,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43875</v>
       </c>
@@ -789,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43875</v>
       </c>
@@ -800,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43877</v>
       </c>
@@ -811,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>43878</v>
       </c>
@@ -822,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43878</v>
       </c>
@@ -833,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>43879</v>
       </c>
@@ -844,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>43879</v>
       </c>
@@ -855,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43880</v>
       </c>
@@ -866,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>43881</v>
       </c>
@@ -877,7 +817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>43881</v>
       </c>
@@ -888,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>43883</v>
       </c>
@@ -899,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>43884</v>
       </c>
@@ -910,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43884</v>
       </c>
@@ -921,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>43884</v>
       </c>
@@ -932,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43884</v>
       </c>
@@ -943,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43885</v>
       </c>
@@ -954,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43885</v>
       </c>
@@ -965,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>43886</v>
       </c>
@@ -976,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>43886</v>
       </c>
@@ -987,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>43886</v>
       </c>
@@ -998,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>43887</v>
       </c>
@@ -1009,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>43887</v>
       </c>
@@ -1020,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>43887</v>
       </c>
@@ -1031,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>43888</v>
       </c>
@@ -1042,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>43889</v>
       </c>
@@ -1053,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>43890</v>
       </c>
@@ -1064,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>43891</v>
       </c>
@@ -1075,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>43891</v>
       </c>
@@ -1086,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>43891</v>
       </c>
@@ -1097,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>43891</v>
       </c>
@@ -1108,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>43892</v>
       </c>
@@ -1119,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>43894</v>
       </c>
@@ -1130,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>43894</v>
       </c>
@@ -1141,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>43894</v>
       </c>
@@ -1152,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>43894</v>
       </c>
@@ -1163,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>43896</v>
       </c>
@@ -1174,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>43896</v>
       </c>
@@ -1185,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>43896</v>
       </c>
@@ -1196,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>43897</v>
       </c>
@@ -1207,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>43898</v>
       </c>
@@ -1218,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>43898</v>
       </c>
@@ -1229,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>43898</v>
       </c>
@@ -1240,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>43898</v>
       </c>
@@ -1251,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>43899</v>
       </c>
@@ -1262,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>43900</v>
       </c>
@@ -1273,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>43900</v>
       </c>
@@ -1284,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>43901</v>
       </c>
@@ -1295,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>43901</v>
       </c>
@@ -1306,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>43902</v>
       </c>
@@ -1317,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>43903</v>
       </c>
@@ -1328,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>43903</v>
       </c>
@@ -1339,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>43903</v>
       </c>
@@ -1350,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>43904</v>
       </c>
@@ -1361,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>43904</v>
       </c>
@@ -1372,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>43905</v>
       </c>
@@ -1383,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>43905</v>
       </c>
@@ -1394,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>43906</v>
       </c>
@@ -1405,7 +1345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>43906</v>
       </c>
@@ -1416,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>43906</v>
       </c>
@@ -1427,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>43907</v>
       </c>
@@ -1438,7 +1378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>43907</v>
       </c>
@@ -1449,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>43907</v>
       </c>
@@ -1460,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>43908</v>
       </c>
@@ -1471,7 +1411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>43908</v>
       </c>
@@ -1482,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>43908</v>
       </c>
@@ -1493,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>43908</v>
       </c>
@@ -1504,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>43908</v>
       </c>
@@ -1515,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>43909</v>
       </c>
@@ -1526,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>43909</v>
       </c>
@@ -1537,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>43909</v>
       </c>
@@ -1548,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>43909</v>
       </c>
@@ -1559,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>43910</v>
       </c>
@@ -1570,7 +1510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>43910</v>
       </c>
@@ -1581,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>43910</v>
       </c>
@@ -1592,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>43910</v>
       </c>
@@ -1603,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>43910</v>
       </c>
@@ -1614,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>43910</v>
       </c>
@@ -1625,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>43911</v>
       </c>
@@ -1636,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>43911</v>
       </c>
@@ -1647,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>43911</v>
       </c>
@@ -1658,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>43911</v>
       </c>
@@ -1669,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>43911</v>
       </c>
@@ -1680,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>43912</v>
       </c>
@@ -1691,7 +1631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>43912</v>
       </c>
@@ -1702,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>43912</v>
       </c>
@@ -1713,7 +1653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>43912</v>
       </c>
@@ -1724,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>43912</v>
       </c>
@@ -1735,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>43912</v>
       </c>
@@ -1746,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>43913</v>
       </c>
@@ -1757,7 +1697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>43913</v>
       </c>
@@ -1768,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>43913</v>
       </c>
@@ -1779,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>43913</v>
       </c>
@@ -1790,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>43913</v>
       </c>
@@ -1801,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>43913</v>
       </c>
@@ -1812,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>43914</v>
       </c>
@@ -1823,7 +1763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>43914</v>
       </c>
@@ -1834,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>43914</v>
       </c>
@@ -1845,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>43914</v>
       </c>
@@ -1856,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>43914</v>
       </c>
@@ -1867,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>43915</v>
       </c>
@@ -1878,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>43915</v>
       </c>
@@ -1889,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>43915</v>
       </c>
@@ -1900,7 +1840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>43915</v>
       </c>
@@ -1911,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>43916</v>
       </c>
@@ -1922,7 +1862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>43916</v>
       </c>
@@ -1933,7 +1873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>43916</v>
       </c>
@@ -1944,7 +1884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>43916</v>
       </c>
@@ -1955,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>43917</v>
       </c>
@@ -1966,7 +1906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>43917</v>
       </c>
@@ -1977,7 +1917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>43917</v>
       </c>
@@ -1988,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>43917</v>
       </c>
@@ -1999,7 +1939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>43918</v>
       </c>
@@ -2010,7 +1950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>43918</v>
       </c>
@@ -2021,7 +1961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>43918</v>
       </c>
@@ -2032,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>43918</v>
       </c>
@@ -2043,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>43919</v>
       </c>
@@ -2054,7 +1994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>43919</v>
       </c>
@@ -2065,7 +2005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>43919</v>
       </c>
@@ -2076,7 +2016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>43919</v>
       </c>
@@ -2087,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>43919</v>
       </c>
@@ -2098,7 +2038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>43919</v>
       </c>
@@ -2109,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>43920</v>
       </c>
@@ -2120,7 +2060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>43920</v>
       </c>
@@ -2131,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>43920</v>
       </c>
@@ -2142,7 +2082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>43920</v>
       </c>
@@ -2153,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>43921</v>
       </c>
@@ -2164,7 +2104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>43921</v>
       </c>
@@ -2175,7 +2115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>43921</v>
       </c>
@@ -2186,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>43921</v>
       </c>
@@ -2197,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>43922</v>
       </c>
@@ -2208,7 +2148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>43922</v>
       </c>
@@ -2219,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>43922</v>
       </c>
@@ -2230,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>43922</v>
       </c>
@@ -2241,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>43922</v>
       </c>
@@ -2252,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>43922</v>
       </c>
@@ -2263,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>43923</v>
       </c>
@@ -2274,7 +2214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>43923</v>
       </c>
@@ -2285,7 +2225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>43923</v>
       </c>
@@ -2296,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>43923</v>
       </c>
@@ -2307,7 +2247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>43923</v>
       </c>
@@ -2318,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>43924</v>
       </c>
@@ -2329,7 +2269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>43924</v>
       </c>
@@ -2340,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>43924</v>
       </c>
@@ -2351,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>43924</v>
       </c>
@@ -2362,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>43925</v>
       </c>
@@ -2373,7 +2313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>43925</v>
       </c>
@@ -2384,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>43925</v>
       </c>
@@ -2395,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>43925</v>
       </c>
@@ -2406,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>43926</v>
       </c>
@@ -2417,7 +2357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>43926</v>
       </c>
@@ -2428,7 +2368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>43927</v>
       </c>
@@ -2439,7 +2379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>43927</v>
       </c>
@@ -2450,7 +2390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>43927</v>
       </c>
@@ -2461,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>43928</v>
       </c>
@@ -2472,7 +2412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>43928</v>
       </c>
@@ -2483,7 +2423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>43928</v>
       </c>
@@ -2494,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>43929</v>
       </c>
@@ -2505,7 +2445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>43929</v>
       </c>
@@ -2516,7 +2456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>43929</v>
       </c>
@@ -2527,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>43929</v>
       </c>
@@ -2538,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>43929</v>
       </c>
@@ -2549,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>43930</v>
       </c>
@@ -2560,7 +2500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>43930</v>
       </c>
@@ -2571,7 +2511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>43930</v>
       </c>
@@ -2582,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>43931</v>
       </c>
@@ -2593,7 +2533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>43931</v>
       </c>
@@ -2604,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>43931</v>
       </c>
@@ -2615,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>43932</v>
       </c>
@@ -2626,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>43932</v>
       </c>
@@ -2637,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>43933</v>
       </c>
@@ -2648,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>43933</v>
       </c>
@@ -2659,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>43934</v>
       </c>
@@ -2670,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>43934</v>
       </c>
@@ -2681,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>43935</v>
       </c>
@@ -2692,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>43935</v>
       </c>
@@ -2703,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>43936</v>
       </c>
@@ -2714,7 +2654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>43937</v>
       </c>
@@ -2725,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>43938</v>
       </c>
@@ -2736,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>43938</v>
       </c>
@@ -2747,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>43939</v>
       </c>
@@ -2758,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>43940</v>
       </c>
@@ -2769,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>43940</v>
       </c>
@@ -2780,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>43942</v>
       </c>
@@ -2791,7 +2731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>43943</v>
       </c>
@@ -2802,7 +2742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>43944</v>
       </c>
@@ -2813,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>43946</v>
       </c>
@@ -2824,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>43946</v>
       </c>
@@ -2835,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>43952</v>
       </c>
@@ -2846,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="2">
         <v>43955</v>
       </c>
@@ -2857,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" s="2">
         <v>43958</v>
       </c>
@@ -2868,7 +2808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" s="2">
         <v>43961</v>
       </c>
@@ -2879,7 +2819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="2">
         <v>43964</v>
       </c>
@@ -2890,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="2">
         <v>43964</v>
       </c>
@@ -2901,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" s="2">
         <v>43964</v>
       </c>
@@ -2912,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="2">
         <v>43965</v>
       </c>
@@ -2923,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="2">
         <v>43966</v>
       </c>
@@ -2934,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>43968</v>
       </c>
@@ -2945,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3">
       <c r="A226" s="2">
         <v>43972</v>
       </c>
@@ -2956,7 +2896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>43973</v>
       </c>
@@ -2967,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" s="2">
         <v>43978</v>
       </c>
@@ -2978,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" s="2">
         <v>43980</v>
       </c>
@@ -2989,7 +2929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" s="2">
         <v>43981</v>
       </c>
@@ -3000,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231" s="2">
         <v>43982</v>
       </c>
@@ -3011,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232" s="2">
         <v>43983</v>
       </c>
@@ -3022,7 +2962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3">
       <c r="A233" s="2">
         <v>43983</v>
       </c>
@@ -3033,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234" s="2">
         <v>43984</v>
       </c>
@@ -3044,7 +2984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235" s="2">
         <v>43984</v>
       </c>
@@ -3055,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" s="2">
         <v>43984</v>
       </c>
@@ -3066,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" s="2">
         <v>43986</v>
       </c>
@@ -3077,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238" s="2">
         <v>43986</v>
       </c>
@@ -3088,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3">
       <c r="A239" s="2">
         <v>43987</v>
       </c>
@@ -3099,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" s="2">
         <v>43988</v>
       </c>
@@ -3110,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" s="2">
         <v>43989</v>
       </c>
@@ -3121,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" s="2">
         <v>43990</v>
       </c>
@@ -3132,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" s="2">
         <v>43994</v>
       </c>
@@ -3143,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" s="2">
         <v>43995</v>
       </c>
@@ -3154,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" s="2">
         <v>43997</v>
       </c>
@@ -3165,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" s="2">
         <v>43999</v>
       </c>
@@ -3176,7 +3116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" s="2">
         <v>44000</v>
       </c>
@@ -3187,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" s="2">
         <v>44001</v>
       </c>
@@ -3198,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" s="2">
         <v>44002</v>
       </c>
@@ -3209,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" s="2">
         <v>44003</v>
       </c>
@@ -3220,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251" s="2">
         <v>44004</v>
       </c>
@@ -3231,7 +3171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252" s="2">
         <v>44005</v>
       </c>
@@ -3242,7 +3182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253" s="2">
         <v>44006</v>
       </c>
@@ -3253,7 +3193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" s="2">
         <v>44007</v>
       </c>
@@ -3264,7 +3204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" s="2">
         <v>44008</v>
       </c>
@@ -3275,7 +3215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3">
       <c r="A256" s="2">
         <v>44009</v>
       </c>
@@ -3286,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3">
       <c r="A257" s="2">
         <v>44010</v>
       </c>
@@ -3297,7 +3237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" s="2">
         <v>44011</v>
       </c>
@@ -3308,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" s="2">
         <v>44012</v>
       </c>
@@ -3319,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" s="2">
         <v>44013</v>
       </c>
@@ -3330,7 +3270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261" s="2">
         <v>44013</v>
       </c>
@@ -3341,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262" s="2">
         <v>44014</v>
       </c>
@@ -3352,7 +3292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3">
       <c r="A263" s="2">
         <v>44015</v>
       </c>
@@ -3363,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3">
       <c r="A264" s="2">
         <v>44016</v>
       </c>
@@ -3374,7 +3314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3">
       <c r="A265" s="2">
         <v>44017</v>
       </c>
@@ -3385,7 +3325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3">
       <c r="A266" s="2">
         <v>44017</v>
       </c>
@@ -3396,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" s="2">
         <v>44017</v>
       </c>
@@ -3407,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3">
       <c r="A268" s="2">
         <v>44018</v>
       </c>
@@ -3418,7 +3358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3">
       <c r="A269" s="2">
         <v>44018</v>
       </c>
@@ -3429,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3">
       <c r="A270" s="2">
         <v>44019</v>
       </c>
@@ -3440,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3">
       <c r="A271" s="2">
         <v>44019</v>
       </c>
@@ -3451,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3">
       <c r="A272" s="2">
         <v>44019</v>
       </c>
@@ -3462,7 +3402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3">
       <c r="A273" s="2">
         <v>44020</v>
       </c>
@@ -3473,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3">
       <c r="A274" s="2">
         <v>44020</v>
       </c>
@@ -3484,7 +3424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3">
       <c r="A275" s="2">
         <v>44020</v>
       </c>
@@ -3495,7 +3435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276" s="2">
         <v>44021</v>
       </c>
@@ -3506,7 +3446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3">
       <c r="A277" s="2">
         <v>44021</v>
       </c>
@@ -3517,7 +3457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3">
       <c r="A278" s="2">
         <v>44021</v>
       </c>
@@ -3528,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3">
       <c r="A279" s="2">
         <v>44022</v>
       </c>
@@ -3539,7 +3479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3">
       <c r="A280" s="2">
         <v>44022</v>
       </c>
@@ -3550,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3">
       <c r="A281" s="2">
         <v>44022</v>
       </c>
@@ -3561,7 +3501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3">
       <c r="A282" s="2">
         <v>44023</v>
       </c>
@@ -3572,7 +3512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3">
       <c r="A283" s="2">
         <v>44023</v>
       </c>
@@ -3583,7 +3523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3">
       <c r="A284" s="2">
         <v>44023</v>
       </c>
@@ -3594,7 +3534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3">
       <c r="A285" s="2">
         <v>44024</v>
       </c>
@@ -3605,7 +3545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3">
       <c r="A286" s="2">
         <v>44024</v>
       </c>
@@ -3616,7 +3556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3">
       <c r="A287" s="2">
         <v>44024</v>
       </c>
@@ -3627,7 +3567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3">
       <c r="A288" s="2">
         <v>44025</v>
       </c>
@@ -3638,7 +3578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3">
       <c r="A289" s="2">
         <v>44025</v>
       </c>
@@ -3649,7 +3589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3">
       <c r="A290" s="2">
         <v>44025</v>
       </c>
@@ -3660,7 +3600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3">
       <c r="A291" s="2">
         <v>44026</v>
       </c>
@@ -3671,7 +3611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3">
       <c r="A292" s="2">
         <v>44026</v>
       </c>
@@ -3682,7 +3622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3">
       <c r="A293" s="2">
         <v>44026</v>
       </c>
@@ -3693,7 +3633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3">
       <c r="A294" s="2">
         <v>44027</v>
       </c>
@@ -3704,7 +3644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3">
       <c r="A295" s="2">
         <v>44027</v>
       </c>
@@ -3715,7 +3655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3">
       <c r="A296" s="2">
         <v>44027</v>
       </c>
@@ -3726,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3">
       <c r="A297" s="2">
         <v>44028</v>
       </c>
@@ -3737,7 +3677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3">
       <c r="A298" s="2">
         <v>44028</v>
       </c>
@@ -3748,7 +3688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3">
       <c r="A299" s="2">
         <v>44028</v>
       </c>
@@ -3759,7 +3699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3">
       <c r="A300" s="2">
         <v>44029</v>
       </c>
@@ -3770,7 +3710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3">
       <c r="A301" s="2">
         <v>44029</v>
       </c>
@@ -3781,7 +3721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3">
       <c r="A302" s="2">
         <v>44029</v>
       </c>
@@ -3792,7 +3732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3">
       <c r="A303" s="2">
         <v>44030</v>
       </c>
@@ -3803,7 +3743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3">
       <c r="A304" s="2">
         <v>44030</v>
       </c>
@@ -3814,7 +3754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3">
       <c r="A305" s="2">
         <v>44030</v>
       </c>
@@ -3825,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3">
       <c r="A306" s="2">
         <v>44031</v>
       </c>
@@ -3836,7 +3776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3">
       <c r="A307" s="2">
         <v>44031</v>
       </c>
@@ -3847,7 +3787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3">
       <c r="A308" s="2">
         <v>44031</v>
       </c>
@@ -3858,7 +3798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3">
       <c r="A309" s="2">
         <v>44032</v>
       </c>
@@ -3869,7 +3809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3">
       <c r="A310" s="2">
         <v>44032</v>
       </c>
@@ -3880,7 +3820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3">
       <c r="A311" s="2">
         <v>44032</v>
       </c>
@@ -3891,7 +3831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3">
       <c r="A312" s="2">
         <v>44033</v>
       </c>
@@ -3902,7 +3842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3">
       <c r="A313" s="2">
         <v>44033</v>
       </c>
@@ -3913,7 +3853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3">
       <c r="A314" s="2">
         <v>44033</v>
       </c>
@@ -3924,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3">
       <c r="A315" s="2">
         <v>44034</v>
       </c>
@@ -3935,7 +3875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3">
       <c r="A316" s="2">
         <v>44034</v>
       </c>
@@ -3946,7 +3886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3">
       <c r="A317" s="2">
         <v>44034</v>
       </c>
@@ -3957,7 +3897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3">
       <c r="A318" s="2">
         <v>44035</v>
       </c>
@@ -3968,7 +3908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3">
       <c r="A319" s="2">
         <v>44035</v>
       </c>
@@ -3979,7 +3919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3">
       <c r="A320" s="2">
         <v>44035</v>
       </c>
@@ -3990,7 +3930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3">
       <c r="A321" s="2">
         <v>44035</v>
       </c>
@@ -4001,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3">
       <c r="A322" s="2">
         <v>44036</v>
       </c>
@@ -4012,7 +3952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" s="2">
         <v>44036</v>
       </c>
@@ -4023,7 +3963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324" s="2">
         <v>44036</v>
       </c>
@@ -4034,7 +3974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3">
       <c r="A325" s="2">
         <v>44037</v>
       </c>
@@ -4045,7 +3985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3">
       <c r="A326" s="2">
         <v>44037</v>
       </c>
@@ -4056,7 +3996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3">
       <c r="A327" s="2">
         <v>44037</v>
       </c>
@@ -4067,7 +4007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3">
       <c r="A328" s="2">
         <v>44038</v>
       </c>
@@ -4078,7 +4018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3">
       <c r="A329" s="2">
         <v>44038</v>
       </c>
@@ -4089,7 +4029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3">
       <c r="A330" s="2">
         <v>44038</v>
       </c>
@@ -4100,7 +4040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3">
       <c r="A331" s="2">
         <v>44039</v>
       </c>
@@ -4111,7 +4051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3">
       <c r="A332" s="2">
         <v>44039</v>
       </c>
@@ -4122,7 +4062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3">
       <c r="A333" s="2">
         <v>44039</v>
       </c>
@@ -4133,7 +4073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3">
       <c r="A334" s="2">
         <v>44039</v>
       </c>
@@ -4144,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3">
       <c r="A335" s="2">
         <v>44040</v>
       </c>
@@ -4155,7 +4095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3">
       <c r="A336" s="2">
         <v>44040</v>
       </c>
@@ -4166,7 +4106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3">
       <c r="A337" s="2">
         <v>44040</v>
       </c>
@@ -4177,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3">
       <c r="A338" s="2">
         <v>44041</v>
       </c>
@@ -4188,7 +4128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3">
       <c r="A339" s="2">
         <v>44041</v>
       </c>
@@ -4199,7 +4139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3">
       <c r="A340" s="2">
         <v>44041</v>
       </c>
@@ -4210,7 +4150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3">
       <c r="A341" s="2">
         <v>44042</v>
       </c>
@@ -4221,7 +4161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3">
       <c r="A342" s="2">
         <v>44042</v>
       </c>
@@ -4232,7 +4172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3">
       <c r="A343" s="2">
         <v>44042</v>
       </c>
@@ -4243,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3">
       <c r="A344" s="2">
         <v>44043</v>
       </c>
@@ -4254,7 +4194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3">
       <c r="A345" s="2">
         <v>44043</v>
       </c>
@@ -4265,7 +4205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3">
       <c r="A346" s="2">
         <v>44043</v>
       </c>
@@ -4276,7 +4216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3">
       <c r="A347" s="2">
         <v>44044</v>
       </c>
@@ -4287,7 +4227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3">
       <c r="A348" s="2">
         <v>44044</v>
       </c>
@@ -4298,7 +4238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3">
       <c r="A349" s="2">
         <v>44044</v>
       </c>
@@ -4309,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3">
       <c r="A350" s="2">
         <v>44045</v>
       </c>
@@ -4320,7 +4260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3">
       <c r="A351" s="2">
         <v>44045</v>
       </c>
@@ -4331,7 +4271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3">
       <c r="A352" s="2">
         <v>44045</v>
       </c>
@@ -4342,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3">
       <c r="A353" s="2">
         <v>44046</v>
       </c>
@@ -4353,7 +4293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3">
       <c r="A354" s="2">
         <v>44046</v>
       </c>
@@ -4364,7 +4304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3">
       <c r="A355" s="2">
         <v>44047</v>
       </c>
@@ -4375,7 +4315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3">
       <c r="A356" s="2">
         <v>44047</v>
       </c>
@@ -4386,7 +4326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3">
       <c r="A357" s="2">
         <v>44047</v>
       </c>
@@ -4397,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3">
       <c r="A358" s="2">
         <v>44048</v>
       </c>
@@ -4408,7 +4348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3">
       <c r="A359" s="2">
         <v>44048</v>
       </c>
@@ -4419,7 +4359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3">
       <c r="A360" s="2">
         <v>44048</v>
       </c>
@@ -4430,7 +4370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3">
       <c r="A361" s="2">
         <v>44049</v>
       </c>
@@ -4441,7 +4381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3">
       <c r="A362" s="2">
         <v>44049</v>
       </c>
@@ -4452,7 +4392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3">
       <c r="A363" s="2">
         <v>44049</v>
       </c>
@@ -4463,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3">
       <c r="A364" s="2">
         <v>44050</v>
       </c>
@@ -4474,7 +4414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3">
       <c r="A365" s="2">
         <v>44050</v>
       </c>
@@ -4485,7 +4425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3">
       <c r="A366" s="2">
         <v>44050</v>
       </c>
@@ -4496,7 +4436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3">
       <c r="A367" s="2">
         <v>44051</v>
       </c>
@@ -4507,7 +4447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3">
       <c r="A368" s="2">
         <v>44051</v>
       </c>
@@ -4518,7 +4458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3">
       <c r="A369" s="2">
         <v>44051</v>
       </c>
@@ -4529,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3">
       <c r="A370" s="2">
         <v>44052</v>
       </c>
@@ -4540,7 +4480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3">
       <c r="A371" s="2">
         <v>44052</v>
       </c>
@@ -4551,7 +4491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3">
       <c r="A372" s="2">
         <v>44052</v>
       </c>
@@ -4562,7 +4502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3">
       <c r="A373" s="2">
         <v>44053</v>
       </c>
@@ -4573,7 +4513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3">
       <c r="A374" s="2">
         <v>44053</v>
       </c>
@@ -4584,7 +4524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3">
       <c r="A375" s="2">
         <v>44053</v>
       </c>
@@ -4595,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3">
       <c r="A376" s="2">
         <v>44054</v>
       </c>
@@ -4606,7 +4546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3">
       <c r="A377" s="2">
         <v>44054</v>
       </c>
@@ -4617,7 +4557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3">
       <c r="A378" s="2">
         <v>44054</v>
       </c>
@@ -4628,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3">
       <c r="A379" s="2">
         <v>44055</v>
       </c>
@@ -4639,7 +4579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3">
       <c r="A380" s="2">
         <v>44055</v>
       </c>
@@ -4650,7 +4590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3">
       <c r="A381" s="2">
         <v>44055</v>
       </c>
@@ -4661,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3">
       <c r="A382" s="2">
         <v>44056</v>
       </c>
@@ -4672,7 +4612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3">
       <c r="A383" s="2">
         <v>44056</v>
       </c>
@@ -4683,7 +4623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3">
       <c r="A384" s="2">
         <v>44056</v>
       </c>
@@ -4694,7 +4634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3">
       <c r="A385" s="2">
         <v>44057</v>
       </c>
@@ -4705,7 +4645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3">
       <c r="A386" s="2">
         <v>44057</v>
       </c>
@@ -4716,7 +4656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3">
       <c r="A387" s="2">
         <v>44057</v>
       </c>
@@ -4727,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3">
       <c r="A388" s="2">
         <v>44058</v>
       </c>
@@ -4738,7 +4678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3">
       <c r="A389" s="2">
         <v>44058</v>
       </c>
@@ -4749,7 +4689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3">
       <c r="A390" s="2">
         <v>44058</v>
       </c>
@@ -4760,7 +4700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3">
       <c r="A391" s="2">
         <v>44059</v>
       </c>
@@ -4771,7 +4711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3">
       <c r="A392" s="2">
         <v>44059</v>
       </c>
@@ -4782,7 +4722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3">
       <c r="A393" s="2">
         <v>44059</v>
       </c>
@@ -4793,7 +4733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3">
       <c r="A394" s="2">
         <v>44060</v>
       </c>
@@ -4804,7 +4744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3">
       <c r="A395" s="2">
         <v>44060</v>
       </c>
@@ -4815,7 +4755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3">
       <c r="A396" s="2">
         <v>44060</v>
       </c>
@@ -4826,7 +4766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3">
       <c r="A397" s="2">
         <v>44061</v>
       </c>
@@ -4837,7 +4777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3">
       <c r="A398" s="2">
         <v>44061</v>
       </c>
@@ -4848,7 +4788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3">
       <c r="A399" s="2">
         <v>44061</v>
       </c>
@@ -4859,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3">
       <c r="A400" s="2">
         <v>44062</v>
       </c>
@@ -4870,7 +4810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3">
       <c r="A401" s="2">
         <v>44062</v>
       </c>
@@ -4881,7 +4821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3">
       <c r="A402" s="2">
         <v>44062</v>
       </c>
@@ -4892,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3">
       <c r="A403" s="2">
         <v>44063</v>
       </c>
@@ -4903,7 +4843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3">
       <c r="A404" s="2">
         <v>44063</v>
       </c>
@@ -4914,7 +4854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3">
       <c r="A405" s="2">
         <v>44063</v>
       </c>
@@ -4925,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3">
       <c r="A406" s="2">
         <v>44064</v>
       </c>
@@ -4936,7 +4876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3">
       <c r="A407" s="2">
         <v>44064</v>
       </c>
@@ -4947,7 +4887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3">
       <c r="A408" s="2">
         <v>44064</v>
       </c>
@@ -4958,7 +4898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3">
       <c r="A409" s="2">
         <v>44065</v>
       </c>
@@ -4969,7 +4909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3">
       <c r="A410" s="2">
         <v>44065</v>
       </c>
@@ -4980,7 +4920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3">
       <c r="A411" s="2">
         <v>44065</v>
       </c>
@@ -4991,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3">
       <c r="A412" s="2">
         <v>44066</v>
       </c>
@@ -5002,7 +4942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3">
       <c r="A413" s="2">
         <v>44066</v>
       </c>
@@ -5013,7 +4953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3">
       <c r="A414" s="2">
         <v>44066</v>
       </c>
@@ -5024,7 +4964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3">
       <c r="A415" s="2">
         <v>44067</v>
       </c>
@@ -5035,7 +4975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3">
       <c r="A416" s="2">
         <v>44067</v>
       </c>
@@ -5046,7 +4986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3">
       <c r="A417" s="2">
         <v>44067</v>
       </c>
@@ -5057,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3">
       <c r="A418" s="2">
         <v>44068</v>
       </c>
@@ -5068,7 +5008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3">
       <c r="A419" s="2">
         <v>44068</v>
       </c>
@@ -5079,7 +5019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3">
       <c r="A420" s="2">
         <v>44068</v>
       </c>
@@ -5090,7 +5030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3">
       <c r="A421" s="2">
         <v>44069</v>
       </c>
@@ -5101,7 +5041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3">
       <c r="A422" s="2">
         <v>44069</v>
       </c>
@@ -5112,7 +5052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3">
       <c r="A423" s="2">
         <v>44070</v>
       </c>
@@ -5123,7 +5063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3">
       <c r="A424" s="2">
         <v>44070</v>
       </c>
@@ -5134,7 +5074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3">
       <c r="A425" s="2">
         <v>44070</v>
       </c>
@@ -5145,7 +5085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3">
       <c r="A426" s="2">
         <v>44071</v>
       </c>
@@ -5156,7 +5096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3">
       <c r="A427" s="2">
         <v>44071</v>
       </c>
@@ -5167,7 +5107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3">
       <c r="A428" s="2">
         <v>44071</v>
       </c>
@@ -5178,7 +5118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3">
       <c r="A429" s="2">
         <v>44072</v>
       </c>
@@ -5189,7 +5129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3">
       <c r="A430" s="2">
         <v>44072</v>
       </c>
@@ -5200,7 +5140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3">
       <c r="A431" s="2">
         <v>44072</v>
       </c>
@@ -5211,7 +5151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3">
       <c r="A432" s="2">
         <v>44073</v>
       </c>
@@ -5222,7 +5162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3">
       <c r="A433" s="2">
         <v>44073</v>
       </c>
@@ -5233,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3">
       <c r="A434" s="2">
         <v>44073</v>
       </c>
@@ -5244,7 +5184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3">
       <c r="A435" s="2">
         <v>44074</v>
       </c>
@@ -5255,7 +5195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3">
       <c r="A436" s="2">
         <v>44074</v>
       </c>
@@ -5266,7 +5206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3">
       <c r="A437" s="2">
         <v>44074</v>
       </c>
@@ -5277,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3">
       <c r="A438" s="2">
         <v>44075</v>
       </c>
@@ -5288,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3">
       <c r="A439" s="2">
         <v>44075</v>
       </c>
@@ -5299,7 +5239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3">
       <c r="A440" s="2">
         <v>44075</v>
       </c>
@@ -5310,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3">
       <c r="A441" s="2">
         <v>44076</v>
       </c>
@@ -5321,7 +5261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3">
       <c r="A442" s="2">
         <v>44076</v>
       </c>
@@ -5332,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3">
       <c r="A443" s="2">
         <v>44077</v>
       </c>
@@ -5343,7 +5283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3">
       <c r="A444" s="2">
         <v>44077</v>
       </c>
@@ -5354,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3">
       <c r="A445" s="2">
         <v>44077</v>
       </c>
@@ -5365,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3">
       <c r="A446" s="2">
         <v>44078</v>
       </c>
@@ -5376,7 +5316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3">
       <c r="A447" s="2">
         <v>44078</v>
       </c>
@@ -5387,7 +5327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3">
       <c r="A448" s="2">
         <v>44078</v>
       </c>
@@ -5398,7 +5338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3">
       <c r="A449" s="2">
         <v>44079</v>
       </c>
@@ -5409,7 +5349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3">
       <c r="A450" s="2">
         <v>44079</v>
       </c>
@@ -5420,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3">
       <c r="A451" s="2">
         <v>44080</v>
       </c>
@@ -5431,7 +5371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3">
       <c r="A452" s="2">
         <v>44080</v>
       </c>
@@ -5442,7 +5382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3">
       <c r="A453" s="2">
         <v>44080</v>
       </c>
@@ -5453,7 +5393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3">
       <c r="A454" s="2">
         <v>44081</v>
       </c>
@@ -5464,7 +5404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3">
       <c r="A455" s="2">
         <v>44081</v>
       </c>
@@ -5475,7 +5415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3">
       <c r="A456" s="2">
         <v>44081</v>
       </c>
@@ -5486,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3">
       <c r="A457" s="2">
         <v>44082</v>
       </c>
@@ -5497,7 +5437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3">
       <c r="A458" s="2">
         <v>44082</v>
       </c>
@@ -5508,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3">
       <c r="A459" s="2">
         <v>44082</v>
       </c>
@@ -5519,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3">
       <c r="A460" s="2">
         <v>44083</v>
       </c>
@@ -5530,7 +5470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3">
       <c r="A461" s="2">
         <v>44083</v>
       </c>
@@ -5541,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3">
       <c r="A462" s="2">
         <v>44083</v>
       </c>
@@ -5552,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3">
       <c r="A463" s="2">
         <v>44084</v>
       </c>
@@ -5563,7 +5503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3">
       <c r="A464" s="2">
         <v>44084</v>
       </c>
@@ -5574,7 +5514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3">
       <c r="A465" s="2">
         <v>44084</v>
       </c>
@@ -5585,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3">
       <c r="A466" s="2">
         <v>44085</v>
       </c>
@@ -5596,7 +5536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3">
       <c r="A467" s="2">
         <v>44085</v>
       </c>
@@ -5607,7 +5547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3">
       <c r="A468" s="2">
         <v>44085</v>
       </c>
@@ -5618,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3">
       <c r="A469" s="2">
         <v>44086</v>
       </c>
@@ -5629,7 +5569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3">
       <c r="A470" s="2">
         <v>44086</v>
       </c>
@@ -5640,7 +5580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3">
       <c r="A471" s="2">
         <v>44086</v>
       </c>
@@ -5651,7 +5591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3">
       <c r="A472" s="2">
         <v>44087</v>
       </c>
@@ -5662,7 +5602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3">
       <c r="A473" s="2">
         <v>44087</v>
       </c>
@@ -5673,7 +5613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3">
       <c r="A474" s="2">
         <v>44087</v>
       </c>
@@ -5684,14 +5624,73 @@
         <v>3</v>
       </c>
     </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B475" t="s">
+        <v>7</v>
+      </c>
+      <c r="C475">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B476" t="s">
+        <v>6</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B477" t="s">
+        <v>3</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B478" t="s">
+        <v>3</v>
+      </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B479" t="s">
+        <v>7</v>
+      </c>
+      <c r="C479">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B480" t="s">
+        <v>3</v>
+      </c>
+      <c r="C480">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B474" xr:uid="{A81D79BE-9F6F-41A8-AE4A-98630FCDF88C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Imported case"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>